--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H2">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I2">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J2">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>45.542292089732</v>
+        <v>663.815426465817</v>
       </c>
       <c r="R2">
-        <v>182.169168358928</v>
+        <v>2655.261705863268</v>
       </c>
       <c r="S2">
-        <v>0.000265406124238783</v>
+        <v>0.002922946785483302</v>
       </c>
       <c r="T2">
-        <v>0.0001263039423167314</v>
+        <v>0.001441304406681928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H3">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I3">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J3">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>3151.004060360633</v>
+        <v>8557.42074882735</v>
       </c>
       <c r="R3">
-        <v>18906.0243621638</v>
+        <v>51344.5244929641</v>
       </c>
       <c r="S3">
-        <v>0.01836305852751614</v>
+        <v>0.03768048236387444</v>
       </c>
       <c r="T3">
-        <v>0.01310817539536967</v>
+        <v>0.02787035614880671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H4">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I4">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J4">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>4203.483812665288</v>
+        <v>9196.100213292721</v>
       </c>
       <c r="R4">
-        <v>25220.90287599173</v>
+        <v>55176.60127975632</v>
       </c>
       <c r="S4">
-        <v>0.02449657880244212</v>
+        <v>0.04049274916754353</v>
       </c>
       <c r="T4">
-        <v>0.01748649066536195</v>
+        <v>0.02995044834738398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H5">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I5">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J5">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>675.862994878979</v>
+        <v>1988.998655988087</v>
       </c>
       <c r="R5">
-        <v>2703.451979515916</v>
+        <v>7955.994623952348</v>
       </c>
       <c r="S5">
-        <v>0.003938716515054124</v>
+        <v>0.008758062853109009</v>
       </c>
       <c r="T5">
-        <v>0.001874393158583561</v>
+        <v>0.004318598835557017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H6">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I6">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J6">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>141.0609418293107</v>
+        <v>3190.942327541883</v>
       </c>
       <c r="R6">
-        <v>846.365650975864</v>
+        <v>19145.65396525129</v>
       </c>
       <c r="S6">
-        <v>0.0008220587092679656</v>
+        <v>0.01405052405697812</v>
       </c>
       <c r="T6">
-        <v>0.0005868134510505893</v>
+        <v>0.01039246540858485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H7">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I7">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J7">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>3239.207989140839</v>
+        <v>12345.59946245448</v>
       </c>
       <c r="R7">
-        <v>19435.24793484503</v>
+        <v>74073.59677472687</v>
       </c>
       <c r="S7">
-        <v>0.01887708322425436</v>
+        <v>0.05436078889544143</v>
       </c>
       <c r="T7">
-        <v>0.01347510369722635</v>
+        <v>0.04020793928313889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>408.782051</v>
       </c>
       <c r="I8">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J8">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>275.1165883144487</v>
+        <v>1476.574318660681</v>
       </c>
       <c r="R8">
-        <v>1650.699529886692</v>
+        <v>8859.445911964087</v>
       </c>
       <c r="S8">
-        <v>0.001603292765205318</v>
+        <v>0.006501729224996677</v>
       </c>
       <c r="T8">
-        <v>0.00114448487679472</v>
+        <v>0.004809001841693254</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>408.782051</v>
       </c>
       <c r="I9">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J9">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>19034.91122368966</v>
@@ -1013,10 +1013,10 @@
         <v>171314.2010132069</v>
       </c>
       <c r="S9">
-        <v>0.1109294631713938</v>
+        <v>0.08381551611336163</v>
       </c>
       <c r="T9">
-        <v>0.1187778324824776</v>
+        <v>0.09299117759364228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>408.782051</v>
       </c>
       <c r="I10">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J10">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>25392.83976522163</v>
+        <v>20455.57374144163</v>
       </c>
       <c r="R10">
-        <v>228535.5578869946</v>
+        <v>184100.1636729747</v>
       </c>
       <c r="S10">
-        <v>0.1479814668138628</v>
+        <v>0.09007105157391569</v>
       </c>
       <c r="T10">
-        <v>0.1584513020546287</v>
+        <v>0.09993153465317454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>408.782051</v>
       </c>
       <c r="I11">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J11">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>4082.823081296183</v>
+        <v>4424.278524105457</v>
       </c>
       <c r="R11">
-        <v>24496.9384877771</v>
+        <v>26545.67114463275</v>
       </c>
       <c r="S11">
-        <v>0.02379340608997974</v>
+        <v>0.01948121446795389</v>
       </c>
       <c r="T11">
-        <v>0.01698454208014217</v>
+        <v>0.01440927375053202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>408.782051</v>
       </c>
       <c r="I12">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J12">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>852.1355267767162</v>
+        <v>7097.851760180974</v>
       </c>
       <c r="R12">
-        <v>7669.219740990447</v>
+        <v>63880.66584162877</v>
       </c>
       <c r="S12">
-        <v>0.004965977273220568</v>
+        <v>0.03125363189691753</v>
       </c>
       <c r="T12">
-        <v>0.005317325080344322</v>
+        <v>0.03467510753309393</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>408.782051</v>
       </c>
       <c r="I13">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J13">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>19567.74263924794</v>
+        <v>27461.24056167908</v>
       </c>
       <c r="R13">
-        <v>176109.6837532315</v>
+        <v>247151.1650551117</v>
       </c>
       <c r="S13">
-        <v>0.1140346367229874</v>
+        <v>0.1209187699244843</v>
       </c>
       <c r="T13">
-        <v>0.1221027001361717</v>
+        <v>0.1341562914585447</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H14">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I14">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J14">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>121.216188664928</v>
+        <v>612.6162544938181</v>
       </c>
       <c r="R14">
-        <v>727.297131989568</v>
+        <v>3675.697526962909</v>
       </c>
       <c r="S14">
-        <v>0.0007064097425129171</v>
+        <v>0.002697503915118391</v>
       </c>
       <c r="T14">
-        <v>0.0005042592873067401</v>
+        <v>0.001995207866532729</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H15">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I15">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J15">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>8386.769421092533</v>
+        <v>7897.398641645233</v>
       </c>
       <c r="R15">
-        <v>75480.92478983279</v>
+        <v>71076.58777480709</v>
       </c>
       <c r="S15">
-        <v>0.04887544883667294</v>
+        <v>0.03477423852014956</v>
       </c>
       <c r="T15">
-        <v>0.0523334352160221</v>
+        <v>0.03858113079608416</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H16">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I16">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J16">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>11188.06857331815</v>
+        <v>8486.817636358881</v>
       </c>
       <c r="R16">
-        <v>100692.6171598634</v>
+        <v>76381.35872722992</v>
       </c>
       <c r="S16">
-        <v>0.06520053737988256</v>
+        <v>0.03736959904841197</v>
       </c>
       <c r="T16">
-        <v>0.06981353993131301</v>
+        <v>0.04146061711311352</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H17">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I17">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J17">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>1798.889176185416</v>
+        <v>1835.589921903398</v>
       </c>
       <c r="R17">
-        <v>10793.3350571125</v>
+        <v>11013.53953142039</v>
       </c>
       <c r="S17">
-        <v>0.01048335914331619</v>
+        <v>0.008082565496042096</v>
       </c>
       <c r="T17">
-        <v>0.007483378119027792</v>
+        <v>0.00597826685962805</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H18">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I18">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J18">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>375.4503551192427</v>
+        <v>2944.829329158649</v>
       </c>
       <c r="R18">
-        <v>3379.053196073184</v>
+        <v>26503.46396242784</v>
       </c>
       <c r="S18">
-        <v>0.002188006334857691</v>
+        <v>0.01296682643741553</v>
       </c>
       <c r="T18">
-        <v>0.002342809948613776</v>
+        <v>0.01438636324134522</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H19">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I19">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J19">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>8621.534593889355</v>
+        <v>11393.40033484325</v>
       </c>
       <c r="R19">
-        <v>77593.8113450042</v>
+        <v>102540.6030135893</v>
       </c>
       <c r="S19">
-        <v>0.0502435862702366</v>
+        <v>0.0501680159223738</v>
       </c>
       <c r="T19">
-        <v>0.05379836972711546</v>
+        <v>0.05566013423872988</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H20">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I20">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J20">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>48.70156706111101</v>
+        <v>291.714377520054</v>
       </c>
       <c r="R20">
-        <v>194.806268244444</v>
+        <v>1166.857510080216</v>
       </c>
       <c r="S20">
-        <v>0.0002838173830288811</v>
+        <v>0.001284491995901834</v>
       </c>
       <c r="T20">
-        <v>0.0001350656639042514</v>
+        <v>0.0006333827161122479</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H21">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I21">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J21">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>3369.589638859775</v>
+        <v>3760.567421899032</v>
       </c>
       <c r="R21">
-        <v>20217.53783315865</v>
+        <v>22563.40453139419</v>
       </c>
       <c r="S21">
-        <v>0.01963690638501186</v>
+        <v>0.01655872704850288</v>
       </c>
       <c r="T21">
-        <v>0.01401749129816707</v>
+        <v>0.01224765691044093</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H22">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I22">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J22">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>4495.08005414968</v>
+        <v>4041.23577485264</v>
       </c>
       <c r="R22">
-        <v>26970.48032489808</v>
+        <v>24247.41464911584</v>
       </c>
       <c r="S22">
-        <v>0.02619590979225012</v>
+        <v>0.01779458061162415</v>
       </c>
       <c r="T22">
-        <v>0.01869953089152102</v>
+        <v>0.01316175558410822</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H23">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I23">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J23">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>722.7477023854733</v>
+        <v>874.0675219147939</v>
       </c>
       <c r="R23">
-        <v>2890.990809541893</v>
+        <v>3496.270087659176</v>
       </c>
       <c r="S23">
-        <v>0.004211945813238112</v>
+        <v>0.003848739802686347</v>
       </c>
       <c r="T23">
-        <v>0.002004420065897965</v>
+        <v>0.001897812736562274</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H24">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I24">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J24">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>150.846358471987</v>
+        <v>1402.262914764012</v>
       </c>
       <c r="R24">
-        <v>905.0781508319221</v>
+        <v>8413.577488584075</v>
       </c>
       <c r="S24">
-        <v>0.0008790850332851523</v>
+        <v>0.006174517366873784</v>
       </c>
       <c r="T24">
-        <v>0.0006275207796391442</v>
+        <v>0.004566979700523932</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H25">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I25">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J25">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>3463.912286127481</v>
+        <v>5425.286485847092</v>
       </c>
       <c r="R25">
-        <v>20783.47371676489</v>
+        <v>32551.71891508255</v>
       </c>
       <c r="S25">
-        <v>0.0201865890445921</v>
+        <v>0.02388890505085204</v>
       </c>
       <c r="T25">
-        <v>0.0144098734660273</v>
+        <v>0.01766942061258195</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H26">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I26">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J26">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>54.82284779697732</v>
+        <v>515.345066818757</v>
       </c>
       <c r="R26">
-        <v>328.937086781864</v>
+        <v>3092.070400912542</v>
       </c>
       <c r="S26">
-        <v>0.0003194902778467969</v>
+        <v>0.002269194336884142</v>
       </c>
       <c r="T26">
-        <v>0.0002280630208119083</v>
+        <v>0.001678408830574042</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H27">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I27">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J27">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>3793.112030207988</v>
+        <v>6643.449958793238</v>
       </c>
       <c r="R27">
-        <v>34138.00827187189</v>
+        <v>59791.04962913915</v>
       </c>
       <c r="S27">
-        <v>0.02210506139562481</v>
+        <v>0.02925278613207073</v>
       </c>
       <c r="T27">
-        <v>0.02366901636770463</v>
+        <v>0.0324552201842562</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H28">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I28">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J28">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>5060.064891436674</v>
+        <v>7139.281025936453</v>
       </c>
       <c r="R28">
-        <v>45540.58402293006</v>
+        <v>64253.52923342808</v>
       </c>
       <c r="S28">
-        <v>0.02948846335153459</v>
+        <v>0.03143605540552689</v>
       </c>
       <c r="T28">
-        <v>0.03157480131966864</v>
+        <v>0.03487750176357751</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H29">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I29">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J29">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>813.5895757476262</v>
+        <v>1544.13501766576</v>
       </c>
       <c r="R29">
-        <v>4881.537454485758</v>
+        <v>9264.810105994562</v>
       </c>
       <c r="S29">
-        <v>0.004741343619570201</v>
+        <v>0.006799216026460863</v>
       </c>
       <c r="T29">
-        <v>0.003384532248912339</v>
+        <v>0.005029037854669701</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H30">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I30">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J30">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>169.8061777121258</v>
+        <v>2477.249430247387</v>
       </c>
       <c r="R30">
-        <v>1528.255599409132</v>
+        <v>22295.24487222649</v>
       </c>
       <c r="S30">
-        <v>0.0009895768840439696</v>
+        <v>0.01090795418469355</v>
       </c>
       <c r="T30">
-        <v>0.001059590428017304</v>
+        <v>0.01210209698405052</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H31">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I31">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J31">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>3899.290053770901</v>
+        <v>9584.356624203636</v>
       </c>
       <c r="R31">
-        <v>35093.61048393812</v>
+        <v>86259.20961783272</v>
       </c>
       <c r="S31">
-        <v>0.02272383345166545</v>
+        <v>0.04220234009142029</v>
       </c>
       <c r="T31">
-        <v>0.02433156715913573</v>
+        <v>0.04682242005168456</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H32">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I32">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J32">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>136.7501948877687</v>
+        <v>634.248537668915</v>
       </c>
       <c r="R32">
-        <v>820.5011693266119</v>
+        <v>3805.49122601349</v>
       </c>
       <c r="S32">
-        <v>0.0007969370347577186</v>
+        <v>0.002792756315180791</v>
       </c>
       <c r="T32">
-        <v>0.0005688807458200162</v>
+        <v>0.002065661272307407</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H33">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I33">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J33">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>9461.544414529326</v>
+        <v>8176.266142318803</v>
       </c>
       <c r="R33">
-        <v>85153.89973076394</v>
+        <v>73586.39528086924</v>
       </c>
       <c r="S33">
-        <v>0.05513889874988308</v>
+        <v>0.0360021624763753</v>
       </c>
       <c r="T33">
-        <v>0.05904003040980029</v>
+        <v>0.03994348110996204</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H34">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I34">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J34">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>12621.83355762983</v>
+        <v>8786.498294549732</v>
       </c>
       <c r="R34">
-        <v>113596.5020186685</v>
+        <v>79078.48465094759</v>
       </c>
       <c r="S34">
-        <v>0.07355606781312654</v>
+        <v>0.0386891685877854</v>
       </c>
       <c r="T34">
-        <v>0.07876023241254038</v>
+        <v>0.04292464586427065</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H35">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I35">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J35">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>2029.419074582973</v>
+        <v>1900.407008770898</v>
       </c>
       <c r="R35">
-        <v>12176.51444749784</v>
+        <v>11402.44205262539</v>
       </c>
       <c r="S35">
-        <v>0.01182681473255849</v>
+        <v>0.008367971481125072</v>
       </c>
       <c r="T35">
-        <v>0.008442382386932823</v>
+        <v>0.006189367300817987</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H36">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I36">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J36">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>423.5647878284895</v>
+        <v>3048.815113870362</v>
       </c>
       <c r="R36">
-        <v>3812.083090456406</v>
+        <v>27439.33602483326</v>
       </c>
       <c r="S36">
-        <v>0.002468402083937436</v>
+        <v>0.01342470208031415</v>
       </c>
       <c r="T36">
-        <v>0.002643043974460764</v>
+        <v>0.0148943645900096</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H37">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I37">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J37">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>9726.395037918997</v>
+        <v>11795.71623906982</v>
       </c>
       <c r="R37">
-        <v>87537.55534127099</v>
+        <v>106161.4461516284</v>
       </c>
       <c r="S37">
-        <v>0.05668236470714276</v>
+        <v>0.0519395143421509</v>
       </c>
       <c r="T37">
-        <v>0.0606926981111714</v>
+        <v>0.0576255665572226</v>
       </c>
     </row>
   </sheetData>
